--- a/まとめたデータ/Book1.xlsx
+++ b/まとめたデータ/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B2C389-1086-42E8-8C8A-0C36C7A60B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7A8DAB-9063-4D55-9BAD-559337F1F813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{94ED3C47-35A2-48BB-A2CF-976EC2D86CD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>f0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>99.7[kHz]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10kHz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1kHz</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,6 +170,44 @@
   </si>
   <si>
     <t>1.5s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5kHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周波数きざみ幅</t>
+    <rPh sb="0" eb="3">
+      <t>シュウハスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンデンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108[nF]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -210,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,24 +263,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EADDF4C-EECF-4230-99D4-BF9A385919E7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -590,7 +652,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -601,7 +663,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,14 +682,14 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -637,14 +699,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,33 +725,61 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
